--- a/tdatlib/fetch/archive/category/__THM.xlsx
+++ b/tdatlib/fetch/archive/category/__THM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5707692dd86f11a/프로그래밍/Back-End/marketport/warehouse/group/handler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5707692dd86f11a/프로그래밍/Back-End/tdatlib/tdatlib/fetch/archive/category/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{DA1BCE7D-0C35-41F9-838D-1A366E16FB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A41A8105-8A09-407B-8ABC-82959CBFD4D4}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{DA1BCE7D-0C35-41F9-838D-1A366E16FB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A0EAE4-051D-439C-A36F-EE21ABBF3F4B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D527B03-0ED5-484F-B723-3C5E035453AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="308">
   <si>
     <t>넷마블</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>미투온</t>
-  </si>
-  <si>
-    <t>넥슨지티</t>
   </si>
   <si>
     <t>엠게임</t>
@@ -2815,10 +2812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6B5691-B97C-475B-8732-04BA6E542DCA}">
-  <dimension ref="A1:C312"/>
+  <dimension ref="A1:C311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212:C212"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2829,13 +2826,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2843,10 +2840,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2854,10 +2851,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2865,10 +2862,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2876,21 +2873,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2898,10 +2895,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2909,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2920,10 +2917,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2931,10 +2928,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2942,10 +2939,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2953,10 +2950,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2964,10 +2961,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2975,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2986,10 +2983,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2997,10 +2994,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3008,43 +3005,43 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3052,10 +3049,10 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3063,120 +3060,120 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -3184,43 +3181,43 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -3228,164 +3225,164 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -3393,87 +3390,87 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
         <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -3481,21 +3478,21 @@
         <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -3503,32 +3500,32 @@
         <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -3536,10 +3533,10 @@
         <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -3547,10 +3544,10 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -3558,87 +3555,87 @@
         <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -3646,87 +3643,87 @@
         <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -3734,43 +3731,43 @@
         <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -3778,65 +3775,65 @@
         <v>74</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" t="s">
         <v>266</v>
       </c>
-      <c r="B90" t="s">
-        <v>267</v>
-      </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -3844,54 +3841,54 @@
         <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B95" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C96" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -3899,32 +3896,32 @@
         <v>84</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -3932,76 +3929,76 @@
         <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -4009,95 +4006,95 @@
         <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="B113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="B114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="B115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="C116" t="s">
         <v>250</v>
@@ -4105,24 +4102,24 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C118" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -4130,10 +4127,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -4141,10 +4138,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C120" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -4152,10 +4149,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -4163,65 +4160,65 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C124" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C126" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -4229,54 +4226,54 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C129" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C130" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131" t="s">
         <v>235</v>
       </c>
-      <c r="B131" t="s">
-        <v>236</v>
-      </c>
       <c r="C131" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C132" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -4284,109 +4281,109 @@
         <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C133" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C134" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C135" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C137" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C138" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B140" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C140" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C141" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C142" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -4394,21 +4391,21 @@
         <v>134</v>
       </c>
       <c r="B143" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C143" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C144" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -4416,18 +4413,18 @@
         <v>114</v>
       </c>
       <c r="B145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C146" t="s">
         <v>251</v>
@@ -4435,13 +4432,13 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C147" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -4449,175 +4446,175 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C148" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C149" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C150" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C151" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C152" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B153" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C153" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C154" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B155" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C155" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C156" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B157" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B158" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C158" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C159" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B160" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C160" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C161" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B162" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C162" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B163" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C163" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -4625,87 +4622,87 @@
         <v>157</v>
       </c>
       <c r="B164" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C164" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="B165" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C165" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C166" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B167" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C167" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C168" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C169" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B170" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C170" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B171" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C171" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -4713,21 +4710,21 @@
         <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C172" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="B173" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C173" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -4735,65 +4732,65 @@
         <v>238</v>
       </c>
       <c r="B174" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C174" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="B175" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C175" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B176" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C176" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C177" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B178" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C178" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="B179" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C179" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -4801,10 +4798,10 @@
         <v>240</v>
       </c>
       <c r="B180" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C180" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -4812,10 +4809,10 @@
         <v>241</v>
       </c>
       <c r="B181" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C181" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -4823,10 +4820,10 @@
         <v>242</v>
       </c>
       <c r="B182" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C182" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -4834,10 +4831,10 @@
         <v>243</v>
       </c>
       <c r="B183" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C183" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -4845,10 +4842,10 @@
         <v>244</v>
       </c>
       <c r="B184" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C184" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -4856,10 +4853,10 @@
         <v>245</v>
       </c>
       <c r="B185" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C185" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -4867,10 +4864,10 @@
         <v>246</v>
       </c>
       <c r="B186" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C186" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -4878,76 +4875,76 @@
         <v>247</v>
       </c>
       <c r="B187" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C187" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="B188" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="C188" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C189" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="B192" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C192" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="B193" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C193" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -4955,208 +4952,208 @@
         <v>198</v>
       </c>
       <c r="B194" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C194" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="B195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C195" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B196" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C197" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C198" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C199" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C205" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B209" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C210" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>307</v>
+      </c>
+      <c r="B211" t="s">
         <v>205</v>
       </c>
-      <c r="B211" t="s">
-        <v>206</v>
-      </c>
       <c r="C211" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="B212" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C212" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -5164,10 +5161,10 @@
         <v>259</v>
       </c>
       <c r="B213" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -5175,10 +5172,10 @@
         <v>260</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -5186,10 +5183,10 @@
         <v>261</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -5197,54 +5194,54 @@
         <v>262</v>
       </c>
       <c r="B216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C216" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C218" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C219" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B220" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C220" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -5252,54 +5249,54 @@
         <v>208</v>
       </c>
       <c r="B221" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C221" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B222" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C222" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B223" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B224" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C224" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>210</v>
+      </c>
+      <c r="B225" t="s">
         <v>216</v>
       </c>
-      <c r="B225" t="s">
-        <v>217</v>
-      </c>
       <c r="C225" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -5307,43 +5304,43 @@
         <v>211</v>
       </c>
       <c r="B226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C226" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B227" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="C227" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="B228" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C228" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C229" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -5351,109 +5348,109 @@
         <v>110</v>
       </c>
       <c r="B230" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C230" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="B231" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C231" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="B232" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C232" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="B233" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C233" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B234" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C234" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B235" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C235" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B236" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C236" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C237" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B238" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C238" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B239" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C239" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -5461,87 +5458,87 @@
         <v>187</v>
       </c>
       <c r="B240" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C240" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B241" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C241" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B242" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C242" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="B243" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C243" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="B244" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C244" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B245" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C245" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C246" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B247" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C247" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -5549,263 +5546,263 @@
         <v>185</v>
       </c>
       <c r="B248" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C249" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B250" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C250" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B251" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C251" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B252" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C252" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C253" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="B254" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C254" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>110</v>
+        <v>303</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>304</v>
+        <v>110</v>
       </c>
       <c r="B256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C257" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B258" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C258" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="B260" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C260" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="B261" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C261" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B262" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C262" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="B263" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C263" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="B264" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C264" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="B265" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C265" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B266" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C266" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="B267" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C267" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="B268" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C268" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
+        <v>306</v>
+      </c>
+      <c r="B269" t="s">
         <v>257</v>
       </c>
-      <c r="B269" t="s">
-        <v>258</v>
-      </c>
       <c r="C269" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="B270" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C270" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="C271" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -5813,10 +5810,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C272" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -5824,10 +5821,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C273" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -5835,10 +5832,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C274" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -5846,10 +5843,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C275" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -5857,10 +5854,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C276" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -5868,10 +5865,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C277" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -5879,10 +5876,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C278" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -5890,32 +5887,32 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C279" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="B280" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C280" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C281" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -5923,32 +5920,32 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C282" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="B283" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C283" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C284" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -5956,10 +5953,10 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C285" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -5967,10 +5964,10 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C286" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -5978,10 +5975,10 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C287" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -5989,10 +5986,10 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -6000,10 +5997,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -6011,10 +6008,10 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C290" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -6022,10 +6019,10 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C291" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -6033,98 +6030,98 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C292" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="B293" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C293" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B294" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C294" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B295" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C295" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="B296" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C296" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="B297" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C297" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="B298" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C298" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="B299" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C299" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="B300" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -6132,10 +6129,10 @@
         <v>294</v>
       </c>
       <c r="B301" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -6143,32 +6140,32 @@
         <v>295</v>
       </c>
       <c r="B302" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C302" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B303" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C303" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B304" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C304" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -6176,32 +6173,32 @@
         <v>297</v>
       </c>
       <c r="B305" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C305" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="B306" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C306" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="B307" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C307" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -6209,32 +6206,32 @@
         <v>299</v>
       </c>
       <c r="B308" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C308" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="B309" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C309" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="B310" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C310" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -6242,21 +6239,10 @@
         <v>301</v>
       </c>
       <c r="B311" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C311" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>302</v>
-      </c>
-      <c r="B312" t="s">
-        <v>303</v>
-      </c>
-      <c r="C312" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6282,7 +6268,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>703047</v>
@@ -6290,7 +6276,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3">
         <v>640023</v>
@@ -6298,7 +6284,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>477548</v>
@@ -6306,7 +6292,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>220504</v>
@@ -6314,7 +6300,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <v>87603</v>
@@ -6322,7 +6308,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>63745</v>
@@ -6330,7 +6316,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>35591</v>
@@ -6338,7 +6324,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9">
         <v>9875</v>
@@ -6346,7 +6332,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10">
         <v>7754</v>
@@ -6362,7 +6348,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12">
         <v>6844</v>
@@ -6370,7 +6356,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>6066</v>
@@ -6378,7 +6364,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14">
         <v>5019</v>
@@ -6386,7 +6372,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>3597</v>
@@ -6394,7 +6380,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16">
         <v>3451</v>
@@ -6402,7 +6388,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>2750</v>
@@ -6410,7 +6396,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18">
         <v>2350</v>
@@ -6418,7 +6404,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19">
         <v>2319</v>
@@ -6426,7 +6412,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20">
         <v>2141</v>
@@ -6444,19 +6430,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId4" name="Control 67">
+        <control shapeId="1065" r:id="rId4" name="Control 41">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -6464,24 +6450,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId4" name="Control 67"/>
+        <control shapeId="1065" r:id="rId4" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId6" name="Control 66">
+        <control shapeId="1066" r:id="rId6" name="Control 42">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -6489,24 +6475,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId6" name="Control 66"/>
+        <control shapeId="1066" r:id="rId6" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId7" name="Control 65">
+        <control shapeId="1067" r:id="rId7" name="Control 43">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -6514,24 +6500,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId7" name="Control 65"/>
+        <control shapeId="1067" r:id="rId7" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId8" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1068" r:id="rId8" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -6539,24 +6525,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId8" name="Control 64"/>
+        <control shapeId="1068" r:id="rId8" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId9" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1069" r:id="rId10" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -6564,24 +6550,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId9" name="Control 63"/>
+        <control shapeId="1069" r:id="rId10" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId10" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1070" r:id="rId11" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -6589,24 +6575,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId10" name="Control 62"/>
+        <control shapeId="1070" r:id="rId11" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId11" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1071" r:id="rId12" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -6614,212 +6600,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId11" name="Control 61"/>
+        <control shapeId="1071" r:id="rId12" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId12" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1084" r:id="rId12" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId13" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1083" r:id="rId13" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId14" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1082" r:id="rId14" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId15" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1081" r:id="rId15" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId16" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1080" r:id="rId16" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId17" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1079" r:id="rId17" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId18" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1078" r:id="rId18" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId19" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1077" r:id="rId19" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId20" name="Control 52">
+        <control shapeId="1072" r:id="rId13" name="Control 48">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -6839,12 +6625,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId20" name="Control 52"/>
+        <control shapeId="1072" r:id="rId13" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId21" name="Control 51">
+        <control shapeId="1073" r:id="rId14" name="Control 49">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -6864,13 +6650,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId21" name="Control 51"/>
+        <control shapeId="1073" r:id="rId14" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId22" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1074" r:id="rId15" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -6889,13 +6675,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId22" name="Control 50"/>
+        <control shapeId="1074" r:id="rId15" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId23" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId24">
+        <control shapeId="1075" r:id="rId16" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -6914,13 +6700,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId23" name="Control 49"/>
+        <control shapeId="1075" r:id="rId16" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId25" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId24">
+        <control shapeId="1076" r:id="rId17" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -6939,24 +6725,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId25" name="Control 48"/>
+        <control shapeId="1076" r:id="rId17" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId26" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1077" r:id="rId18" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -6964,24 +6750,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId26" name="Control 47"/>
+        <control shapeId="1077" r:id="rId18" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId27" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1078" r:id="rId19" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -6989,24 +6775,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId27" name="Control 46"/>
+        <control shapeId="1078" r:id="rId19" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId28" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1079" r:id="rId20" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -7014,24 +6800,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId28" name="Control 45"/>
+        <control shapeId="1079" r:id="rId20" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId29" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1080" r:id="rId21" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -7039,24 +6825,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId29" name="Control 44"/>
+        <control shapeId="1080" r:id="rId21" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId30" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId24">
+        <control shapeId="1081" r:id="rId22" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -7064,24 +6850,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId30" name="Control 43"/>
+        <control shapeId="1081" r:id="rId22" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId31" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId24">
+        <control shapeId="1082" r:id="rId23" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -7089,24 +6875,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId31" name="Control 42"/>
+        <control shapeId="1082" r:id="rId23" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId32" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId24">
+        <control shapeId="1083" r:id="rId24" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -7114,7 +6900,207 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId32" name="Control 41"/>
+        <control shapeId="1083" r:id="rId24" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1084" r:id="rId25" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1084" r:id="rId25" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1085" r:id="rId26" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1085" r:id="rId26" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1086" r:id="rId27" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1086" r:id="rId27" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1087" r:id="rId28" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1087" r:id="rId28" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1088" r:id="rId29" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1088" r:id="rId29" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1089" r:id="rId30" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1089" r:id="rId30" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1090" r:id="rId31" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1090" r:id="rId31" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1091" r:id="rId32" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1091" r:id="rId32" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
